--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech\Attendance_violation_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{64025CF2-009F-48CD-BCB9-DB50BA580F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08B2A43-314E-4D78-B4B8-FF110E527AE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC49B9-413C-4C32-8AF1-9CD71D06B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3E14D5-C427-4626-A4F2-5944F75FEE4F}"/>
+    <workbookView xWindow="2805" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{5B3E14D5-C427-4626-A4F2-5944F75FEE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>Employee ID</t>
   </si>
@@ -77,18 +77,6 @@
     <t>Sign Out Time Check</t>
   </si>
   <si>
-    <t>Sign In Gate Check</t>
-  </si>
-  <si>
-    <t>SignOut Gate Check</t>
-  </si>
-  <si>
-    <t>Sgin Time Violation</t>
-  </si>
-  <si>
-    <t>Sign Gate Check</t>
-  </si>
-  <si>
     <t>Working Hours</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>No Violation</t>
   </si>
   <si>
-    <t>Valid</t>
-  </si>
-  <si>
     <t>Ibrahim Mohsen</t>
   </si>
   <si>
@@ -131,15 +116,9 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>Sign Gate In &amp; Out Violations</t>
-  </si>
-  <si>
     <t>Bla Bla</t>
   </si>
   <si>
-    <t>Absent</t>
-  </si>
-  <si>
     <t>Ahmed Hassan</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
   </si>
   <si>
     <t>Sign Out Time Violation</t>
-  </si>
-  <si>
-    <t>Sign out Time Violation</t>
   </si>
   <si>
     <t>Heba Ahmed</t>
@@ -225,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,34 +295,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -707,13 +660,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E5F13B-597C-4217-AE77-09683AA72CE1}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -721,21 +674,17 @@
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,34 +727,22 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>10022</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8">
         <v>45504</v>
@@ -814,7 +751,7 @@
         <v>0.36179398148148151</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8">
         <v>45504</v>
@@ -826,42 +763,30 @@
         <v>0.35790509259259257</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>10025</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="8">
         <v>45504</v>
@@ -870,7 +795,7 @@
         <v>0.40962962962962962</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I3" s="8">
         <v>45504</v>
@@ -882,33 +807,21 @@
         <v>0.46153935185185185</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>10035</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" t="e">
         <v>#N/A</v>
@@ -938,42 +851,30 @@
         <v>#N/A</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>10037</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8">
         <v>45504</v>
@@ -982,7 +883,7 @@
         <v>0.44089120370370372</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I5" s="8">
         <v>45504</v>
@@ -994,42 +895,30 @@
         <v>0.40589120370370368</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>10046</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="8">
         <v>45504</v>
@@ -1038,7 +927,7 @@
         <v>0.53651620370370368</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I6" s="8">
         <v>45504</v>
@@ -1050,42 +939,30 @@
         <v>0.32026620370370373</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>10052</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F7" s="8">
         <v>45504</v>
@@ -1094,7 +971,7 @@
         <v>0.4095138888888889</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I7" s="8">
         <v>45504</v>
@@ -1106,42 +983,30 @@
         <v>0.2519791666666667</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>10073</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8">
         <v>45504</v>
@@ -1150,7 +1015,7 @@
         <v>0.46652777777777776</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I8" s="8">
         <v>45504</v>
@@ -1162,42 +1027,30 @@
         <v>0.20090277777777776</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>10119</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9" s="8">
         <v>45504</v>
@@ -1206,7 +1059,7 @@
         <v>0.41321759259259261</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I9" s="8">
         <v>45504</v>
@@ -1218,42 +1071,30 @@
         <v>0.22526620370370365</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>10123</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8">
         <v>45504</v>
@@ -1262,7 +1103,7 @@
         <v>0.41019675925925925</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8">
         <v>45504</v>
@@ -1274,51 +1115,39 @@
         <v>0.26453703703703701</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10249</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8">
         <v>45504</v>
       </c>
       <c r="G11" s="9">
-        <v>0.42541666666666667</v>
+        <v>0.41667824074074072</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I11" s="8">
         <v>45504</v>
@@ -1330,33 +1159,21 @@
         <v>0.24122685185185189</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10100</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C12" t="e">
         <v>#N/A</v>
@@ -1386,59 +1203,37 @@
         <v>#N/A</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C23:E23"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>0.666666666666667</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:R1">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>0.291666666666667</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G12">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.458333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J1:J12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.666666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K12 K1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.291666666666667</formula>
     </cfRule>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech\Attendance_violation_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC49B9-413C-4C32-8AF1-9CD71D06B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7C61C-A9DC-4245-90A5-FAD67CB369B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2805" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{5B3E14D5-C427-4626-A4F2-5944F75FEE4F}"/>
   </bookViews>
@@ -662,23 +662,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E5F13B-597C-4217-AE77-09683AA72CE1}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.140625" customWidth="1"/>
@@ -1144,7 +1144,7 @@
         <v>45504</v>
       </c>
       <c r="G11" s="9">
-        <v>0.41667824074074072</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -1233,7 +1233,7 @@
       <formula>0.666666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12 K1:N1">
+  <conditionalFormatting sqref="K1:N1 K2:K12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.291666666666667</formula>
     </cfRule>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech\Attendance_violation_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7C61C-A9DC-4245-90A5-FAD67CB369B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F18C0B-A6EE-4F2E-89C7-96E6898F3CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{5B3E14D5-C427-4626-A4F2-5944F75FEE4F}"/>
+    <workbookView xWindow="3495" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{5B3E14D5-C427-4626-A4F2-5944F75FEE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Employee ID</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Mahmoud Mahmoud</t>
-  </si>
-  <si>
-    <t>Add all scenarios that can happen :D</t>
   </si>
 </sst>
 </file>
@@ -265,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,9 +288,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E5F13B-597C-4217-AE77-09683AA72CE1}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,17 +1206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C23:E23"/>
-  </mergeCells>
   <conditionalFormatting sqref="G2:G12">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.458333333333333</formula>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech\Attendance_violation_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F18C0B-A6EE-4F2E-89C7-96E6898F3CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFDE01D-E2C3-48DB-AE35-BFC174B2B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{5B3E14D5-C427-4626-A4F2-5944F75FEE4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B3E14D5-C427-4626-A4F2-5944F75FEE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>Employee ID</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Mahmoud Mahmoud</t>
+  </si>
+  <si>
+    <t>N+1 Email</t>
+  </si>
+  <si>
+    <t>omar.bussinessstuff@gmail.com</t>
+  </si>
+  <si>
+    <t>omar@gmail.com</t>
+  </si>
+  <si>
+    <t>omar.studystuff@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -198,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +222,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,10 +279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,8 +310,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -654,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E5F13B-597C-4217-AE77-09683AA72CE1}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,9 +699,10 @@
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.140625" customWidth="1"/>
+    <col min="15" max="15" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,8 +745,11 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>10022</v>
       </c>
@@ -765,8 +792,11 @@
       <c r="N2" t="s">
         <v>19</v>
       </c>
+      <c r="O2" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>10025</v>
       </c>
@@ -809,8 +839,11 @@
       <c r="N3" t="s">
         <v>19</v>
       </c>
+      <c r="O3" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>10035</v>
       </c>
@@ -853,8 +886,11 @@
       <c r="N4" t="s">
         <v>25</v>
       </c>
+      <c r="O4" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>10037</v>
       </c>
@@ -897,8 +933,11 @@
       <c r="N5" t="s">
         <v>19</v>
       </c>
+      <c r="O5" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>10046</v>
       </c>
@@ -941,8 +980,11 @@
       <c r="N6" t="s">
         <v>36</v>
       </c>
+      <c r="O6" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>10052</v>
       </c>
@@ -985,8 +1027,11 @@
       <c r="N7" t="s">
         <v>36</v>
       </c>
+      <c r="O7" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>10073</v>
       </c>
@@ -1029,8 +1074,11 @@
       <c r="N8" t="s">
         <v>36</v>
       </c>
+      <c r="O8" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>10119</v>
       </c>
@@ -1073,8 +1121,11 @@
       <c r="N9" t="s">
         <v>36</v>
       </c>
+      <c r="O9" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>10123</v>
       </c>
@@ -1117,8 +1168,11 @@
       <c r="N10" t="s">
         <v>36</v>
       </c>
+      <c r="O10" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10249</v>
       </c>
@@ -1161,8 +1215,11 @@
       <c r="N11" t="s">
         <v>36</v>
       </c>
+      <c r="O11" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10100</v>
       </c>
@@ -1204,6 +1261,9 @@
       </c>
       <c r="N12" t="s">
         <v>25</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1222,6 +1282,12 @@
       <formula>0.291666666666667</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{CC57DC45-DAC9-4F23-854E-6F4030869C87}"/>
+    <hyperlink ref="O4" r:id="rId2" xr:uid="{7C0EABF5-8F5E-4E43-92C5-16A41EB66A94}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{DE0C5C7F-AF4C-4F60-A028-E75A5146C61B}"/>
+    <hyperlink ref="O12" r:id="rId4" xr:uid="{0CEFE371-DC6E-4C4A-B33B-F935C29F1AE7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>